--- a/DataCreated/BQESEdatCW_WFD2016.xlsx
+++ b/DataCreated/BQESEdatCW_WFD2016.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/heliana_teixeira_ua_pt/Documents/Rdir/WFD-TRaC-data-upto2022/DataCreated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helianateixeira/Documents/Rdir/WFD-TRaC-data-upto2022/DataCreated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C3CC9370546952E184CBC9780C2113E698732882" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6E8D65-EE2E-AC44-9444-1B03133EB03F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB535D-0FBB-5E44-A454-4DD46BFA90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="39120" windowHeight="19840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="3880" windowWidth="25580" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AC$116</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1251,16 +1254,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1735,7 +1736,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>6.5782499999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>0.21669272727272701</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>0.448147727272727</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>0.32001249999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>0.30242727272727299</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>0.26043333333333302</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>0.350308333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>1.28919463169889</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>0.110086666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>0.12808249999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>0.139638333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>9.9504999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>0.102380833333333</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>0.15709166666666699</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>0.423749242424242</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>0.335895833333333</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>0.28687499999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>0.11488166666666701</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>0.234900555555556</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>0.129931666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>9.8880833333333307E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>4.3780897009966804</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>1.96878028000368</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>0.42724583333333299</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -4608,7 +4609,7 @@
         <v>0.60344166666666699</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>0.22989696969696999</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>0.13724083333333301</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>177</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>0.12229583333333301</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>0.20828333333333299</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>0.18574659090909099</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>1.80582142857143</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>0.56597481060606103</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>9.4289999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>0.11154500000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>9.9773333333333297E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>0.10829583333333299</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>2.2137952380952401</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>0.11869666666666701</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>200</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>3.5181623217754101</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>204</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>2.0639598644249801</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>206</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>2.2471763668430298</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>2.1443036206218</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>210</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>0.16653583333333299</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>212</v>
       </c>
@@ -5697,7 +5698,7 @@
         <v>0.103664166666667</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>0.1007825</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>216</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>0.18901166666666699</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>2.3840677949911302</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>231</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>6.8833333333333302E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>7.1661111111111104</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>247</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>7.8666666666666704E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>249</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>35.152083333333302</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>269</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>8.88488636363636</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>273</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>6.3435714285714297</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>295</v>
       </c>
@@ -7867,6 +7868,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC116" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="21">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7876,9 +7884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/DataCreated/BQESEdatCW_WFD2016.xlsx
+++ b/DataCreated/BQESEdatCW_WFD2016.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helianateixeira/Documents/Rdir/WFD-TRaC-data-upto2022/DataCreated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/heliana_teixeira_ua_pt/Documents/Rdir/WFD-TRaC-data-upto2022/DataCreated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB535D-0FBB-5E44-A454-4DD46BFA90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C3CC9370546952E184CBC9780C2113E698732882" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D6E8D65-EE2E-AC44-9444-1B03133EB03F}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="3880" windowWidth="25580" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="39120" windowHeight="19840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="notes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AC$116</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1254,14 +1251,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1736,7 +1735,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1922,7 +1921,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>6.5782499999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>0.21669272727272701</v>
       </c>
     </row>
-    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>0.448147727272727</v>
       </c>
     </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>0.32001249999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>0.30242727272727299</v>
       </c>
     </row>
-    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>0.26043333333333302</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>0.350308333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>1.28919463169889</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>0.110086666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>0.12808249999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>0.139638333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>9.9504999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>133</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>0.102380833333333</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>0.15709166666666699</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>137</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>0.423749242424242</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>0.335895833333333</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>0.28687499999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>0.11488166666666701</v>
       </c>
     </row>
-    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>0.234900555555556</v>
       </c>
     </row>
-    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>0.129931666666667</v>
       </c>
     </row>
-    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>9.8880833333333307E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>4.3780897009966804</v>
       </c>
     </row>
-    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -4515,7 +4514,7 @@
         <v>1.96878028000368</v>
       </c>
     </row>
-    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>0.42724583333333299</v>
       </c>
     </row>
-    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>0.60344166666666699</v>
       </c>
     </row>
-    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>173</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>0.22989696969696999</v>
       </c>
     </row>
-    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>0.13724083333333301</v>
       </c>
     </row>
-    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>177</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>0.12229583333333301</v>
       </c>
     </row>
-    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>0.20828333333333299</v>
       </c>
     </row>
-    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>0.18574659090909099</v>
       </c>
     </row>
-    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>1.80582142857143</v>
       </c>
     </row>
-    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>0.56597481060606103</v>
       </c>
     </row>
-    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>9.4289999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>0.11154500000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>9.9773333333333297E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>0.10829583333333299</v>
       </c>
     </row>
-    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>2.2137952380952401</v>
       </c>
     </row>
-    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>0.11869666666666701</v>
       </c>
     </row>
-    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>200</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>3.5181623217754101</v>
       </c>
     </row>
-    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>204</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>2.0639598644249801</v>
       </c>
     </row>
-    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>206</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>2.2471763668430298</v>
       </c>
     </row>
-    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>2.1443036206218</v>
       </c>
     </row>
-    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>210</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>0.16653583333333299</v>
       </c>
     </row>
-    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>212</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>0.103664166666667</v>
       </c>
     </row>
-    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>0.1007825</v>
       </c>
     </row>
-    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>216</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>0.18901166666666699</v>
       </c>
     </row>
-    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>2.3840677949911302</v>
       </c>
     </row>
-    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>231</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>6.8833333333333302E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>234</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>7.1661111111111104</v>
       </c>
     </row>
-    <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>247</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>7.8666666666666704E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>249</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>35.152083333333302</v>
       </c>
     </row>
-    <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>269</v>
       </c>
@@ -7238,7 +7237,7 @@
         <v>8.88488636363636</v>
       </c>
     </row>
-    <row r="107" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>273</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>6.3435714285714297</v>
       </c>
     </row>
-    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>295</v>
       </c>
@@ -7868,13 +7867,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC116" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="21">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7884,7 +7876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
